--- a/server/data_with_datetime.xlsx
+++ b/server/data_with_datetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\website_rasp\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330D51B9-1A79-45F4-A7E2-763D94A04743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066D93B9-5306-4C09-A3DE-C003A29BFDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="0" windowWidth="8916" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,13 +625,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G74" sqref="A62:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
